--- a/feature.xlsx
+++ b/feature.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Feature</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,10 @@
   </si>
   <si>
     <t>office room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>walk in closet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,7 +494,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -733,8 +737,12 @@
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="3"/>
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C27" s="3"/>
     </row>
   </sheetData>
